--- a/模版.xlsx
+++ b/模版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/GitHub/Prompt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31992F37-DFAD-3946-B2CD-03D93299F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED42037A-8507-8B42-A049-7DB6D508D6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="680" windowWidth="33020" windowHeight="19260" xr2:uid="{BF010281-A820-5048-B981-B1E894F99CBC}"/>
+    <workbookView xWindow="5380" yWindow="680" windowWidth="33020" windowHeight="19260" xr2:uid="{BF010281-A820-5048-B981-B1E894F99CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="670">
   <si>
     <t>整理裤腰带 →拉裤子裤腿布料→双手插口袋</t>
   </si>
@@ -1150,23 +1150,4385 @@
     <t>温柔长卷发搭空气刘海，女生利落长脸，小鹿眼明亮，挺直小鼻，花瓣唇带光泽，白皙匀净肤色，匀称直身型舒适大方</t>
   </si>
   <si>
-    <t>利落高马尾露额头，女生娇俏心形脸，深棕杏眼灵动，小巧翘鼻，小巧 M 唇，白皙透亮肤色，高挑微胖身形大气舒展</t>
-  </si>
-  <si>
-    <t>蓬松卷发配碎刘海，女生柔和方圆脸，浅棕猫眼含笑，圆润鼻头，软嫩唇珠，白皙细腻肤色，纤瘦 H 型身材清爽干练</t>
-  </si>
-  <si>
-    <t>简约黑直长发，女生精致鹅蛋脸，细长丹凤眼上挑，窄鼻翼挺鼻，蜜桃唇抿出娇憨，白皙透红肤色，娇小型身材娇俏讨喜</t>
-  </si>
-  <si>
-    <t>俏皮丸子头显元气，女生圆润娃娃脸，清亮圆眼明亮，挺直鼻梁，樱桃唇笑出梨涡，白皙匀净肤色，微胖苹果型身材富态亲切</t>
+    <t>男五官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马来西亚玻璃市加央稻田雨后：清晨细雨刚停，稻田上弥漫着薄雾，形成自然的层次感。远处农舍灯光透过薄雾形成柔和光晕，前景田埂上几株野生兰花点缀。水珠在稻叶上闪烁，倒映着初升的太阳。整体色调统一在青绿色调，中央区域开阔干净，适合模特站立。远处农民身影形成模糊光影，增添生活气息但不喧宾夺主。</t>
+  </si>
+  <si>
+    <t>霹雳州玲珑谷考古遗址黄昏：世界文化遗产在精心设计的照明下呈现历史厚重感但不刺眼。前景考古展示区空间开阔，远处研究人员在指定区域工作形成模糊光影。整体色调和谐统一在琥珀色，背景是蒂迪旺沙山脉轮廓，层次分明不杂乱，灯光氛围学术而宁静，中央区域空间开阔适合模特。</t>
+  </si>
+  <si>
+    <t>雪兰莪州莎阿南蓝色清真寺夜景：现代伊斯兰建筑在专业照明下轮廓清晰但不抢眼。前景广场上低矮绿植形成自然框架，远处稀疏参观者形成柔和光点。整体灯光分布均匀，色调统一在蓝白色调，背景细节适度虚化，中央区域留白充足，氛围庄重而宁静。</t>
+  </si>
+  <si>
+    <t>槟城北海轮渡码头黎明：百年海上交通在晨光中苏醒，船只轮廓柔和。前景码头空间开阔，远处通勤者等待的身影形成模糊光影。背景是槟威海峡两岸初醒的城市轮廓，整体色调和谐统一在粉蓝色调，灯光氛围宁静而期待，中央区域空间开阔适合模特。</t>
+  </si>
+  <si>
+    <t>吉打州锡县稻田艺术项目夜景：农民用不同品种水稻创作的大地艺术在专业投射灯下呈现，但不刺眼。前景观景台空间开阔，远处家庭游客形成模糊光影。整体色调统一在绿色调，背景是锡县丘陵夜色，层次分明不杂乱，中央区域空间开阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州新山苏丹依布拉欣大厦夜景：殖民风格历史建筑在精心修复的照明下庄严典雅。前景广场空间开阔，远处历史爱好者拍照形成模糊光影。整体色调和谐统一在琥珀色，背景是柔佛海峡灯光轮廓，层次分明不杂乱，灯光氛围历史感浓厚而不压抑，中央区域留白充足。</t>
+  </si>
+  <si>
+    <t>沙巴州京那巴鲁山云海清晨：清晨云雾缭绕山腰，形成自然层次。专业观景台照明温暖但不刺眼，前景空地空间开阔。远处登山者身影形成模糊光影，整体色调统一在蓝白色调，背景是初升太阳穿透云层，层次分明不杂乱，中央区域空间开阔适合模特。</t>
+  </si>
+  <si>
+    <t>砂拉越州民都鲁长屋文化村夜景：原住民传统建筑在传统火把与现代LED混合照明下生动但不杂乱。前景表演区域空间开阔，远处社区成员准备传统舞蹈形成模糊光影。整体色调和谐统一在暖黄色调，背景是南中国海月色，层次分明不杂乱，灯光氛围文化气息浓厚而真实，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>吉兰丹州丹那美拉渔村清晨：东海岸传统渔村在晨光中苏醒，渔船整齐排列。前景码头空间开阔，远处渔民整理渔网形成模糊光影。整体色调统一在粉蓝色调，背景是南中国海日出，层次分明不杂乱，灯光氛围真实生活气息浓厚，中央区域空间开阔宁静。</t>
+  </si>
+  <si>
+    <t>彭亨州金马仑高原茶园清晨：英国殖民时期茶园在晨雾中如画，茶树排列成整齐的几何图案。前景观景台空间开阔，远处采茶工人身影形成模糊光影。整体色调和谐统一在绿色调，背景是云雾缭绕的山峦，层次分明不杂乱，灯光氛围宁静而高级，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>登嘉楼州瓜拉登嘉楼红树林黄昏：生态保护区内，专业木栈道在景观灯下安全通行但不刺眼。前景观景台空间开阔，远处生态摄影师架设设备形成模糊光影。整体色调统一在蓝绿色调，背景是登嘉楼河入海口，层次分明不杂乱，灯光氛围保护意识浓厚而宁静，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>吉隆坡城中城公园晨雾：现代都市中的绿洲在晨雾中若隐若现，双子塔轮廓透过薄雾形成柔和背景。前景草坪空间开阔，远处晨练人群形成模糊光影。整体色调和谐统一在蓝灰色调，背景层次分明不杂乱，灯光氛围都市与自然和谐共存，中央区域空间开阔适合模特。</t>
+  </si>
+  <si>
+    <t>槟城巴都丁宜海滩黄昏：槟城著名海滩在夕阳余晖中宁静，椰子树在微风中摇曳。前景沙滩空间开阔，远处冲浪者身影形成模糊光影。整体色调统一在橙紫色调，背景是槟威海峡货轮灯光，层次分明不杂乱，灯光氛围休闲而高级，中央区域留白充足。</t>
+  </si>
+  <si>
+    <t>马六甲野新橡胶研究站黄昏：马来西亚橡胶产业历史在景观灯下重现，百年橡胶树排列整齐。前景空地空间开阔，远处研究人员记录数据形成模糊光影。整体色调和谐统一在琥珀色，背景是塔曼山脉轮廓，层次分明不杂乱，灯光氛围科研气息浓厚而宁静，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>柔佛州迪沙鲁海岸花园夜景：现代海滨度假区在精心设计的景观灯下优雅，花卉布置成几何图案。前景草坪空间开阔，远处度假家庭散步形成模糊光影。整体色调统一在蓝白色调，背景是柔佛东海岸月色，层次分明不杂乱，灯光氛围奢华而宁静，中央区域空间开阔适合模特。</t>
+  </si>
+  <si>
+    <t>霹雳州怡保三宝洞晨光：华人宗教场所与自然洞穴结合，在晨光与专业照明下宁静神圣。前景空地空间开阔，远处信徒上香身影形成模糊光影。整体色调和谐统一在蓝黄色调，背景是近打河平原晨色，层次分明不杂乱，灯光氛围宗教与自然和谐，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>吉打州浮罗交怡天空之桥晨雾：缆车系统在晨雾中若隐若现，群岛在晨光中呈现柔和轮廓。前景观景台空间开阔，远处早起游客形成模糊光影。整体色调统一在蓝白色调，背景是安南岛日出，层次分明不杂乱，灯光氛围神秘而宁静，中央区域空间开阔宁静。</t>
+  </si>
+  <si>
+    <t>雪兰莪州瓜拉冷岳观鸟台黄昏：西海岸候鸟迁徙重要站点，在专业暗光照明下保护生态。前景木平台空间开阔，远处鸟类爱好者架设望远镜形成模糊光影。整体色调和谐统一在蓝绿色调，背景是马六甲海峡日落，层次分明不杂乱，灯光氛围环保意识浓厚，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>槟城亚依淡传统果园黄昏：槟城丘陵地带百年果园，果树在景观灯下果实清晰但不刺眼。前景空地空间开阔，远处园主向游客介绍传统品种形成模糊光影。整体色调统一在绿色调，背景是槟城中央山脉夜色，层次分明不杂乱，灯光氛围农业传承浓厚，中央区域空间开阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡武吉加里尔国家体育场黎明：国家级体育设施在晨光中苏醒，专业照明逐渐调暗。前景广场空间开阔，远处晨练人群形成模糊光影。整体色调和谐统一在粉蓝色调，背景是吉隆坡南部城市轮廓，层次分明不杂乱，灯光氛围健康生活理念，中央区域空间开阔适合模特。</t>
+  </si>
+  <si>
+    <t>沙巴州山打根海龟保育中心夜探：专业红光照明下保护海龟产卵，灯光严格控制不刺眼。前景沙滩空间开阔，远处研究人员记录数据形成模糊光影。整体色调统一在暗红色调，背景是苏禄海月色，层次分明不杂乱，灯光氛围生态保护意识浓厚，中央区域空间开阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州古晋猫博物馆黄昏：全球最大的猫主题博物馆在景观灯下趣味横生但不幼稚。前景广场空间开阔，远处家庭游客形成模糊光影。整体色调和谐统一在琥珀色，背景是砂拉越河灯光，层次分明不杂乱，灯光氛围轻松而有趣，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>吉兰丹州万捷传统银器工坊夜景：东海岸著名手工艺在工作灯下细节清晰但不刺眼。前景空地空间开阔，远处老匠人教授年轻学徒形成模糊光影。整体色调统一在暖黄色调，背景是吉兰丹河灯光，层次分明不杂乱，灯光氛围工艺传承浓厚，中央区域空间开阔宁静。</t>
+  </si>
+  <si>
+    <t>彭亨州刁曼岛珊瑚礁黄昏：海洋保护区在专业潜水灯下珊瑚生态系统生机勃勃但不刺眼。前景海滩空间开阔，远处潜水员返回岸边形成模糊光影。整体色调和谐统一在蓝绿色调，背景是南海日落，层次分明不杂乱，灯光氛围海洋保护意识，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>吉隆坡甲洞湖滨公园晨雾：城市水库在晨雾中如仙境，环湖步道在景观灯下安全通行。前景草坪空间开阔，远处太极拳练习者形成模糊光影。整体色调统一在蓝灰色调，背景是吉隆坡北部山峦，层次分明不杂乱，灯光氛围宁静而治愈，中央区域空间开阔适合模特。</t>
+  </si>
+  <si>
+    <t>马六甲麻坡河黄昏：马六甲州母亲河在景观灯下温柔流淌，河岸步道整齐排列。前景河岸空间开阔，远处垂钓者身影形成模糊光影。整体色调和谐统一在琥珀色，背景是马六甲内陆山峦，层次分明不杂乱，灯光氛围宁静而生活化，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>柔佛州新山马来西亚乐高乐园夜景：主题乐园在专业照明下奇幻但不刺眼，适合成人摄影。前景广场空间开阔，远处家庭游客形成模糊光影。整体色调统一在多彩但不跳跃，背景是柔佛海峡夜色，层次分明不杂乱，灯光氛围欢乐而高级，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>霹雳州太平湖滨公园雨后：雨后初晴，湖面如镜倒映百年树木，景观灯在水汽中形成柔和光晕。前景步道空间开阔，远处游客撑伞漫步形成模糊光影。整体色调和谐统一在蓝绿色调，背景是太平山轮廓，层次分明不杂乱，灯光氛围诗意而宁静，中央区域空间开阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州日得拉火车总站黄昏：马泰边境交通枢纽在历史照明下怀旧感浓厚。前景广场空间开阔，远处跨境旅客排队检票形成模糊光影。整体色调统一在琥珀色，背景是吉打河与泰国山脉，层次分明不杂乱，灯光氛围历史与现代交融，中央区域空间开阔。</t>
+  </si>
+  <si>
+    <t>槟城大山脚福建义山黎明：百年华人墓园在晨光中宁静，树木形成自然框架。前景空地空间开阔，远处早期祭祖者身影形成模糊光影。整体色调和谐统一在粉蓝色调，背景是槟城中央山脉晨色，层次分明不杂乱，灯光氛围庄重而宁静，中央区域空间开阔适合模特。</t>
+  </si>
+  <si>
+    <t>雪兰莪州巴生肉骨茶老店清晨：百年美食传承在晨光中准备，传统炉灶蒸汽袅袅。前景街道空间开阔，远处老店主准备食材形成模糊光影。整体色调统一 in 暖黄色调，background 是巴生河晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州拿笃油棕研究中心黄昏：马来西亚经济作物研究机构在景观灯下科学而美丽。前景展示区 space 阔，远处研究人员记录数据形成模糊光影。整体色调和谐统一 in 绿色调，background 是苏禄海日落，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州诗巫新安村黄昏：福州垦场百年历史在景观灯下重现，传统房屋与现代建筑并存。前景街道 provide 充足 central space，远处村民集体准备晚餐身影形成模糊光影。整体色调统一 in 琥珀色，background 是拉让江灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州道北传统马来婚礼黄昏：边境地区马来婚礼在精心设计的灯光下庄重美丽。前景空地 provide 充足 central space，远处社区居民集体参与庆祝形成模糊光影。整体色调和谐统一 in 多彩 but 不跳跃，background 是吉兰丹河与泰国山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城浮罗山背有机茶园黄昏：槟城丘陵地带新农业在景观灯下现代而环保。前景展示区 space 阔，远处茶农采收最后一批茶叶形成模糊光影。整体色调统一 in 绿色调，background 是槟城中央山脉夜色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡敦拉萨国际贸易中心黎明：现代金融区在晨光中苏醒，建筑轮廓逐渐清晰。前景广场 provide 充足 central space，远处早起上班族形成模糊光影。整体色调和谐统一 in 蓝灰色调，background 是吉隆坡城市天际线，层次分明不杂乱，central 区域 space 阔适合模特。</t>
+  </si>
+  <si>
+    <t>马六甲野新传统棕榈糖工坊黄昏：马六甲内陆传统工艺在工作灯下生动展示。前景空地 provide 充足 central space，远处老匠人教授年轻一代熬制技艺形成模糊光影。整体色调统一 in 琥珀色，background 是塔曼山轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州麻坡陶瓷博物馆夜景：南马陶瓷历史在专业照明下重现辉煌。前景广场 space 阔，远处游客欣赏夜间特展形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是麻坡河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州江沙马来王室博物馆黄昏：霹雳州王室历史在景观灯下庄重展示。前景花园 space 阔，远处历史爱好者记录细节形成模糊光影。整体色调统一 in 金色与白色，background 是霹雳河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州浮罗交怡孕妇沙滩黎明：兰卡威传说之地在晨光中如梦境，灯光逐渐调暗。前景沙滩 space 阔，远处晨跑者身影形成模糊光影。整体色调和谐统一 in 粉蓝色调，background 是安南岛晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州斗湖唐人街清晨：东海岸最大华人聚居区在晨光中苏醒，百年老店准备开张。前景街道 provide 充足 central space，远处老店主煮着传统早餐形成模糊光影。整体色调统一 in 暖黄色调，background 是苏禄海晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州古晋中央监狱博物馆夜景：殖民时期建筑改造为文化空间，室内照明专业设计。前景广场 space 阔，远处学生夜间参观形成模糊光影。整体色调和谐统一 in 蓝灰色调，background 是砂拉越河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州巴西马士传统风筝场黎明：东海岸马来风筝文化在晨光中传承，风筝在微风中轻摇。前景空地 provide 充足 central space，远处老匠人指导年轻人制作风筝形成模糊光影。整体色调统一 in 蓝色调，background 是吉兰丹河晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>彭亨州文冬传统温泉浴场清晨：西马著名温泉区在晨雾中如仙境，蒸汽袅袅但不密集。前景花园 space 阔，远处早期疗养者形成模糊光影。整体色调和谐统一 in 蓝白色调，background 是金马仑高原晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>登嘉楼州龙运传统造船厂黎明：南中国海木船制作工艺在晨光中重现，木料排列整齐。前景空地 provide 充足 central space，老工匠检查昨日进度身影形成模糊光影。整体色调统一 in 琥珀色，background 是登嘉楼河晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>玻璃市巴东勿刹边境清真寺黄昏：马泰边境重要宗教场所，在景观灯下庄严神圣。前景广场 space 阔，远处跨境穆斯林共同祈祷形成模糊光影。整体色调和谐统一 in 绿色与白色，background 是玻璃市平原与泰国山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡安邦福建义山清明黎明：百年墓园在传统节日清晨灯火通明但分布均匀。前景空地 provide 充足 central space，远处早期祭祖者身影形成模糊光影。整体色调统一 in 暖黄色调，background 是吉隆坡东南部晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>马六甲亚沙汉传统渔村清晨：马六甲河入海口传统渔业在晨光中苏醒，渔船整齐排列。前景河岸 provide 充足 central space，远处渔民整理渔具形成模糊光影。整体色调和谐统一 in 蓝色调，background 是马六甲海峡日出，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城牛干冬老戏院黄昏：百年电影院在精心修复的照明下重现辉煌，建筑细节清晰。前景街道 space 阔，远处老影迷等待经典电影放映形成模糊光影。整体色调统一 in 暖黄色调，background 是槟城丘陵夜色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州实必丹传统稻作黄昏：婆罗洲原住民农业在景观灯下历史感浓厚。前景田埂 space 阔，远处社区成员集体收割形成模糊光影。整体色调和谐统一 in 绿色调，background 是京那巴鲁山余晖，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州丹那美拉传统银器市场黄昏：东海岸最大银器集散地在专业照明下展示但不刺眼。前景广场 provide 充足 central space，远处工匠现场制作形成模糊光影。整体色调统一 in 银色与琥珀色，background 是南中国海灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>雪兰莪州乌鲁雪兰莪萤火虫公园夜景：西海岸生态保护区在专业暗光照明下保护生态。前景码头 space 阔，远处生态游客安静观察形成模糊光影。整体色调和谐统一 in 深绿色调，background 是雪兰莪河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州古来传统椰糖工坊黄昏：南马传统工艺在工作灯下生动展示，传统工具排列整齐。前景空地 provide 充足 central space，老匠人向年轻学徒传授熬制技艺形成模糊光影。整体色调统一 in 琥珀色，background 是柔佛内陆山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州太平博物馆黄昏：马来西亚最古老博物馆之一在景观灯下历史感厚重。前景广场 space 阔，远处历史爱好者记录展品形成模糊光影。整体色调和谐统一 in 琥珀色，background 是太平山轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州亚罗士打稻米博物馆夜景：北马农业历史在专业照明下重现，建筑轮廓清晰。前景空地 provide 充足 central space，远处农业学生夜间参观形成模糊光影。整体色调统一 in 暖黄色调，background 是吉打河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州纳闽岛历史堡黄昏：殖民时期防御工事在景观灯下历史感浓厚。前景广场 space 阔，远处历史爱好者拍摄形成模糊光影。整体色调和谐统一 in 蓝灰色调，background 是南中国海日落，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州古晋日本墓园夜景：太平洋战争历史遗迹在夜间照明下肃穆庄严。前景空地 provide 充足 central space，远处历史学者记录细节形成模糊光影。整体色调统一 in 蓝灰色调，background 是砂拉越河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州道北边境咖啡园清晨：泰马边境传统产业在晨光中苏醒，咖啡树整齐排列。前景小径 space 阔，远处农民采摘晨露中的咖啡豆形成模糊光影。整体色调和谐统一 in 绿色调，background 是吉兰丹 inland 山脉晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>彭亨州文冬传统客家新村黄昏：紧急法令时期历史在现代灯光下转型为文化热点。前景街道 provide 充足 central space，远处老居民讲述移民故事形成模糊光影。整体色调统一 in 琥珀色，background 是金马仑高原轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>登嘉楼州瓜拉尼鲁斯传统渔村清晨：东海岸渔村在晨光中苏醒，木船整齐排列岸边。前景码头 space 阔，远处渔民整理渔网形成模糊光影。整体色调和谐统一 in 蓝色调，background 是南中国海日出，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州浮罗交怡稻米艺术夜景：农民用不同品种水稻创作的艺术在专业投射灯下呈现。前景观景台 space 阔，远处家庭游客形成模糊光影。整体色调统一 in 绿色调，background 是安南岛度假村灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城北海传统潮州村落黄昏：华人潮州族群聚居区在景观灯下温暖呈现，宗祠建筑轮廓清晰。前景空地 provide 充足 central space，远处老村民向年轻人讲述祖先故事形成模糊光影。整体色调和谐统一 in 琥珀色，background 是槟威海峡夜色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡班底谷传统马来甘榜黄昏：都市边缘传统社区在现代城市背景下坚持文化。前景空地 space 阔，远处村民集体准备晚餐形成模糊光影。整体色调统一 in 琥珀色，background 是吉隆坡城市天际线，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>马六甲爱极乐工业区黄昏：马六甲州经济引擎在专业照明下工业美感，但不刺眼。前景广场 provide 充足 central space，远处工人换班形成模糊光影。整体色调和谐统一 in 蓝色调，background 是马六甲海峡货轮灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州兵南邦传统稻作黄昏：东海岸原住民农业在景观灯下展示传统智慧。前景田埂 space 阔，远处社区成员集体收割形成模糊光影。整体色调统一 in 绿色调，background 是沙巴内陆山脉轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州诗巫福州传统建筑博物馆夜景：百年华人建筑在专业照明下细节清晰。前景广场 provide 充足 central space，远处华裔家庭分享家族历史形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是拉让江灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州哥打巴鲁传统马来宫廷黄昏：东海岸马来文化中心在景观灯下庄重美丽。前景广场 space 阔，远处文化表演团体准备演出形成模糊光影。整体色调统一 in 金色与白色，background 是吉兰丹河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城大山脚华人义山清明黄昏：百年墓园在传统节日里灯火通明但分布均匀。前景空地 provide 充足 central space，远处不同时期移民家族遵循传统形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是槟城中央山脉夜色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>雪兰莪州布城湿地公园黄昏：新行政中心生态配套在景观灯下如自然画卷。前景木栈道 space 阔，远处摄影爱好者捕捉鸟类归巢形成模糊光影。整体色调统一 in 蓝绿色调，background 是布城政府建筑灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州迪沙鲁传统马来村落黄昏：东海岸马来文化在景观灯下温暖呈现，高脚屋轮廓清晰。前景空地 provide 充足 central space，远处村民集体准备开斋节晚餐形成模糊光影。整体色调和谐统一 in 琥珀色，background 是柔佛东海岸夜色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州怡保传统锡矿遗址黄昏：西马历史经济基础在景观灯下重现辉煌。前景空地 space 阔，远处历史导览员讲解华人劳工故事形成模糊光影。整体色调统一 in 蓝灰色调，background 是近打河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州锡县稻田日落：北马粮仓在夕阳下如金色海洋，农用灯点缀但不密集。前景田埂 provide 充足 central space，远处农民结束一天劳作形成模糊光影。整体色调和谐统一 in 金色调，background 是锡县丘陵轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州山打根日本墓园黎明：太平洋战争历史遗迹在晨光中宁静，纪念碑轮廓清晰。前景空地 space 阔，远处历史学者记录细节形成模糊光影。整体色调统一 in 粉蓝色调，background 是西巴迪岛晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州古晋伊班族传统织布黄昏：原住民工艺在工作灯下节奏律动，织布机排列整齐。前景展示区 provide 充足 central space，老匠人向年轻女性传授传统图案形成模糊光影。整体色调和谐统一 in 多彩 but 不跳跃，background 是砂拉越河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州巴西马士传统马来风筝工作坊黄昏：东海岸著名工艺在工作灯下细节清晰。前景空地 space 阔，老匠人指导年轻人制作传统风筝形成模糊光影。整体色调统一 in 暖黄色调，background 是吉兰丹河与泰国边境山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>彭亨州而榄传统棕榈园黄昏：西马传统油棕产业在景观灯下展示历史。前景小径 provide 充足 central space，远处老种植园主与年轻管理者交流形成模糊光影。整体色调和谐统一 in 绿色调，background 是金马仑高原轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>登嘉楼州瓜拉登嘉楼传统造船黄昏：南中国海传统工艺在工作灯下生动展示。前景空地 space 阔，老工匠向学徒传授造船技艺形成模糊光影。整体色调统一 in 琥珀色，background 是登嘉楼河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州浮罗交怡东姑阿都拉曼纪念公园黄昏：马来西亚首任首相纪念地在景观灯下庄重。前景广场 provide 充足 central space，远处历史爱好者记录细节形成模糊光影。整体色调和谐统一 in 蓝白色调，background 是安南岛度假村灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城浮罗山背传统果园黎明：槟城丘陵地带传统农业在晨光中苏醒，果树整齐排列。前景空地 space 阔，远处园主检查果树生长状况形成模糊光影。整体色调统一 in 绿色调，background 是槟城中央山脉晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡甲洞传统华人新村黄昏：都市边缘华人社区在暖黄灯光下怀旧感浓厚。前景街道 provide 充足 central space，远处老店主向顾客讲述店铺历史形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是吉隆坡北部城市灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>马六甲亚沙占传统渔村黄昏：马六甲河支流渔村在景观灯下如历史画卷。前景河岸 space 阔，远处渔民家族分享捕捞故事形成模糊光影。整体色调统一 in 琥珀色，background 是红树林保护区灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州昔加末传统马来村落黎明：南马内陆马来文化在晨光中宁静，高脚屋轮廓清晰。前景空地 provide 充足 central space，远处村民早起准备传统早餐形成模糊光影。整体色调和谐统一 in 粉蓝色调，background 是柔佛内陆山脉晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州江沙皇家高尔夫俱乐部黄昏：霹雳王室休闲场所 in landscape lighting 下优雅，草坪维护完美。前景发球台 space 阔，远处会员家庭享受黄昏时光形成模糊光影。整体色调统一 in 绿色调，background 是霹雳河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州古达传统巴瑶村落黄昏：海上游牧民族社区在景观灯下温暖呈现，木屋倒映水面。前景码头 provide 充足 central space，远处居民准备晚餐形成模糊光影。整体色调和谐统一 in 蓝色调，background 是苏禄海日落，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州诗巫传统福州美食街黄昏：东马华人饮食文化在灯光下热闹 but 不杂乱。前景街道 space 阔，远处不同世代共享传统美食形成模糊光影。整体色调统一 in 暖黄色调，background 是拉让江灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州话望生传统农耕黄昏：东海岸内陆农业区在农用灯光下劳作继续。前景田埂 provide 充足 central space，远处农民身影形成模糊光影。整体色调和谐统一 in 绿色调，background 是吉兰丹内陆山脉轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城大英义学图书馆夜景：百年学府知识殿堂在专业照明下宁静严肃。前景广场 space 阔，远处校友携家人回忆求学时光形成模糊光影。整体色调统一 in 暖黄色调，background 是乔治市夜色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>雪兰莪州瓜拉冷岳传统渔村黎明：西海岸渔村在晨光中苏醒，渔船整齐排列岸边。前景码头 provide 充足 central space，远处渔民整理渔具形成模糊光影。整体色调和谐统一 in 粉蓝色调，background 是马六甲海峡日出，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州峇株巴辖传统印度庙黄昏：南亚建筑在节日灯饰下金碧辉煌 but 不刺眼。前景广场 space 阔，远处泰米尔家庭安静祈祷形成模糊光影。整体色调统一 in 多彩 but 不跳跃，background 是柔佛内陆山峦，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州怡保传统华人会馆黄昏：西马华人历史组织在景观灯下庄严肃穆。前景广场 provide 充足 central space，远处老会员向年轻一代讲述先辈故事形成模糊光影。整体色调和谐统一 in 琥珀色，background 是近打河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州双溪大年传统泰式寺庙黄昏：马泰边境宗教融合在景观灯下生动呈现。前景广场 space 阔，远处跨境信徒共同祈祷形成模糊光影。整体色调统一 in 金色与红色，background 是吉打河与泰国山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州拿笃传统马来村落黄昏：东海岸马来文化在景观灯下温暖呈现，高脚屋轮廓清晰。前景空地 provide 充足 central space，远处村民集体准备传统晚餐形成模糊光影。整体色调和谐统一 in 琥珀色，background 是苏禄海灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡安邦传统华人义山清明黄昏：百年墓园在传统节日里灯火通明 but 分布均匀。前景空地 space 阔，远处不同时期移民家族遵循传统祭祖形成模糊光影。整体色调统一 in 暖黄色调，background 是吉隆坡东南部城市灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>马六甲爱极乐传统棕榈糖工坊黄昏：马六甲内陆传统工艺在工作灯下生动展示。前景空地 provide 充足 central space，老匠人教授年轻学徒熬制技艺形成模糊光影。整体色调和谐统一 in 琥珀色，background 是马六甲内陆山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州古晋河滨长屋文化村夜景：原住民文化活态展示在传统火把与现代LED混合照明下。前景表演区 space 阔，远处社区成员准备传统舞蹈形成模糊光影。整体色调统一 in 暖黄色调，background 是砂拉越河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州丹那美拉传统马来织布黄昏：东海岸著名手工艺在工作灯下节奏律动。前景展示区 provide 充足 central space，老匠人向年轻女性传授传统图案形成模糊光影。整体色调和谐统一 in 多彩 but 不跳跃，background 是吉兰丹河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城北海传统泰米尔社区黄昏：马来西亚印度族群聚居区在景观灯下温暖呈现。前景街道 space 阔，远处社区成员准备传统晚餐形成模糊光影。整体色调统一 in 暖黄色调，background 是槟威海峡对岸乔治市灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>雪兰莪州蒲种湖滨公园黄昏：城市水库在景观灯下如镜，反射周围树木。前景步道 provide 充足 central space，远处家庭共享休闲时光形成模糊光影。整体色调和谐统一 in 蓝绿色调，background 是雪兰莪 central 城市灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州麻坡传统福建社区黄昏：南马华人聚居区在暖黄灯光下历史感浓厚。前景街道 space 阔，远处老居民讲述早期开拓故事形成模糊光影。整体色调统一 in 琥珀色，background 是柔佛河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州太平老街区黄昏：西马历史街区在精心修复的照明下重现昔日光彩。前景街道 provide 充足 central space，远处店主向顾客展示祖传商品形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是太平山轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州斗亚兰传统市场黎明：京那巴鲁山脚最大市集在晨光中苏醒，摊位整齐排列。前景广场 space 阔，远处农民运送新鲜农产品形成模糊光影。整体色调统一 in 粉蓝色调，background 是神山晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州民都鲁传统造船厂黄昏：东海岸传统工艺在工作灯下生动展示，木料排列整齐。前景空地 provide 充足 central space，老工匠向学徒传授造船技艺形成模糊光影。整体色调和谐统一 in 琥珀色，background 是南中国海灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州万捷传统马来武术训练黄昏：东海岸文化在专业照明下展示传统但不刺眼。前景训练区 space 阔，老教练指导年轻人练习形成模糊光影。整体色调统一 in 暖黄色调，background 是吉兰丹河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>彭亨州文冬传统客家饮食文化黄昏：西马华人美食在暖黄灯光下香气四溢。前景街道 provide 充足 central space，老店主向游客讲述家族烹饪传统形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是金马仑高原轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>登嘉楼州龙运传统马来村落黄昏：东海岸马来文化在景观灯下温暖呈现。前景空地 space 阔，远处村民集体准备开斋节晚餐形成模糊光影。整体色调统一 in 琥珀色，background 是登嘉楼河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州浮罗交怡稻米博物馆黄昏：农业历史在专业照明下重现辉煌，建筑轮廓清晰。前景广场 provide 充足 central space，远处农业学生记录展品形成模糊光影。整体色调和谐统一 in 琥珀色，background 是安南岛度假村灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城大山脚传统茶室黎明：南洋华人饮食文化在晨光中苏醒，传统家具摆放整齐。前景空间 space 阔，老店主煮着传统咖啡形成模糊光影。整体色调统一 in 暖黄色调，background 是槟城中央山脉晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡敦拉萨镇传统马来甘榜黄昏：都市传统社区在现代灯光下文化坚守。前景空地 provide 充足 central space，远处村民集体准备传统晚餐形成模糊光影。整体色调和谐统一 in 琥珀色，background 是吉隆坡城市天际线，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>马六甲野新传统华人新村黄昏：紧急法令时期历史在现代灯光下转型为文化热点。前景街道 space 阔，远处老居民讲述移民历史形成模糊光影。整体色调统一 in 暖黄色调，background 是塔曼山轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州居銮传统铁道小镇黄昏：南马交通枢纽在历史照明下怀旧感浓厚。前景广场 provide 充足 central space，远处铁路爱好者收集历史资料形成模糊光影。整体色调和谐统一 in 琥珀色，background 是柔佛内陆山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州玲珑湖黄昏：马来西亚最大人工湖在景观灯下如镜，倒映周围山景。前景码头 space 阔，远处休闲家庭垂钓形成模糊光影。整体色调统一 in 蓝绿色调，background 是蒂迪旺沙山脉轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州玻璃市边境山脉黄昏：马泰边境自然景观在夕阳下壮丽 but 不刺眼。前景观景台 provide 充足 central space，远处登山爱好者记录日落形成模糊光影。整体色调和谐统一 in 橙紫色调，background 是玻璃市平原灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州亚庇中央市场黎明：东马最大市集在晨光中苏醒，摊位整齐排列。前景广场 space 阔，远处农民运送新鲜农产品形成模糊光影。整体色调统一 in 粉蓝色调，background 是南中国海晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州古晋中央监狱博物馆黎明：殖民时期建筑在晨光中历史感厚重，专业照明逐渐调暗。前景广场 provide 充足 central space，远处历史学者记录细节形成模糊光影。整体色调和谐统一 in 蓝灰色调，background 是砂拉越河晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州巴西马士传统马来表演黄昏：东海岸文化在专业舞台灯光下重现。前景广场 space 阔，远处社区居民集体观看形成模糊光影。整体色调统一 in 蓝紫色调，background 是吉兰丹河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城浮罗山背传统客家村落黄昏：华人客家聚居区在景观灯下温暖呈现，围屋轮廓清晰。前景空地 provide 充足 central space，老村民向年轻人讲述移民历史形成模糊光影。整体色调和谐统一 in 琥珀色，background 是槟城中央山脉夜色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>雪兰莪州巴生传统锡矿遗址黄昏：西马历史经济基础在景观灯下重现辉煌。前景空地 space 阔，远处历史导览员讲解华人劳工故事形成模糊光影。整体色调统一 in 蓝灰色调，background 是巴生河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州古来传统福建社区黄昏：南马华人聚居区在暖黄灯光下历史感浓厚。前景街道 provide 充足 central space，老店主向游客分享家族历史形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是柔佛内陆山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州华都牙也传统木屋村落黄昏：西马传统建筑在景观灯下细节清晰。前景空地 space 阔，远处老村民讲述村落历史形成模糊光影。整体色调统一 in 琥珀色，background 是近打河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州日得拉传统马来村落黄昏：北马马来文化在景观灯下温暖呈现。前景空地 provide 充足 central space，远处村民集体准备传统晚餐形成模糊光影。整体色调和谐统一 in 琥珀色，background 是吉打河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州根地咬传统原住民村落黄昏：婆罗洲内陆文化在景观灯下生动展示。前景空地 space 阔，老族长向年轻人传授传统智慧形成模糊光影。整体色调统一 in 暖黄色调，background 是克罗克山脉轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州美里石油钻塔黎明：东马经济象征在晨光中逐渐清晰，安全照明温暖。前景观景台 provide 充足 central space，远处石油工人换班形成模糊光影。整体色调和谐统一 in 粉蓝色调，background 是南中国海晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州道北传统马来纺织黎明：东海岸著名工艺在晨光中苏醒，织布机整齐排列。前景展示区 space 阔，老匠人准备一天的工作形成模糊光影。整体色调统一 in 粉蓝色调，background 是吉兰丹河与泰国边境山脉晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>彭亨州淡马鲁传统棕榈园黄昏：西马传统油棕产业在景观灯下展示历史。前景小径 provide 充足 central space，远处老种植园主与年轻管理者交流形成模糊光影。整体色调和谐统一 in 绿色调，background 是蒂迪旺沙山脉轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>登嘉楼州瓜拉登嘉楼传统马来村落黄昏：东海岸马来文化在景观灯下温暖呈现。前景空地 space 阔，远处村民集体准备开斋节晚餐形成模糊光影。整体色调统一 in 琥珀色，background 是登嘉楼河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州浮罗交怡孕妇湖黄昏：兰卡威传说之地在景观灯下如梦境，灯光分布均匀。前景湖岸 provide 充足 central space，远处情侣漫步形成模糊光影。整体色调和谐统一 in 蓝白色调，background 是安南岛度假村灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城乔治市联合国世遗核心区黎明：历史街区在晨光中苏醒，百年骑楼轮廓柔和。前景街道 space 阔，远处早起店主准备开店形成模糊光影。整体色调统一 in 粉蓝色调，background 是槟威海峡晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡蕉赖传统华人新村黄昏：都市边缘华人社区在暖黄灯光下怀旧感浓厚。前景街道 provide 充足 central space，老店主向年轻顾客讲述店铺历史形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是吉隆坡东南部城市灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>马六甲林梦岸传统棕榈糖工坊黎明：马六甲内陆传统工艺在晨光中苏醒。前景空地 space 阔，老匠人准备熬制设备形成模糊光影。整体色调统一 in 粉蓝色调，background 是塔曼山晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州新山马来传统村落黄昏：南马马来文化在景观灯下温暖呈现，高脚屋轮廓清晰。前景空地 provide 充足 central space，远处村民集体准备晚餐形成模糊光影。整体色调和谐统一 in 琥珀色，background 是柔佛海峡灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州江沙传统马来织布黄昏：霹雳王室支持的传统工艺在工作灯下生动展示。前景展示区 space 阔，老匠人向年轻女性传授宫廷图案形成模糊光影。整体色调统一 in 多彩 but 不跳跃，background 是霹雳河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州双溪大年传统市场黎明：北马边境最大市集在晨光中苏醒，摊位整齐排列。前景广场 provide 充足 central space，远处跨境商人准备一天的交易形成模糊光影。整体色调和谐统一 in 粉蓝色调，background 是吉打河与泰国山脉晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州纳闽岛传统马来村落黄昏：联邦直辖区马来文化在景观灯下温暖呈现。前景空地 space 阔，远处村民集体准备传统晚餐形成模糊光影。整体色调统一 in 琥珀色，background 是南中国海灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州古晋传统福建社区黄昏：东马华人聚居区在暖黄灯光下历史感浓厚。前景街道 provide 充足 central space，老店主向游客分享家族历史形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是砂拉越河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州哥打巴鲁传统市场黄昏：东海岸最大市集在暖黄灯光下热闹 but 不杂乱。前景广场 space 阔，远处不同族群商人相邻经营形成模糊光影。整体色调统一 in 暖黄色调，background 是吉兰丹河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城北海传统马来村落黎明：北马马来社区在晨光中苏醒，高脚屋轮廓清晰。前景空地 provide 充足 central space，远处村民准备传统早餐形成模糊光影。整体色调和谐统一 in 粉蓝色调，background 是槟威海峡晨色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>雪兰莪州莎阿南传统马来宫廷黄昏：雪兰莪王室文化在景观灯下庄重展示。前景广场 space 阔，远处文化学者记录仪式细节形成模糊光影。整体色调统一 in 金色与白色，background 是巴生河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州峇株巴辖传统印度社区黄昏：南马印度族群聚居区在景观灯下温暖呈现。前景街道 provide 充足 central space，泰米尔家庭准备传统晚餐形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是柔佛内陆山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>霹雳州怡保传统锡矿博物馆黄昏：西马历史经济基础在专业照明下重现辉煌。前景广场 space 阔，远处学生团体在教师带领下学习形成模糊光影。整体色调统一 in 蓝灰色调，background 是近打河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州浮罗交怡传统马来渔船黄昏：兰卡威海岛传统渔业在景观灯下如艺术品。前景码头 provide 充足 central space，老渔民向年轻人传授传统技艺形成模糊光影。整体色调和谐统一 in 蓝色调，background 是安南岛度假村灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>沙巴州山打根传统华人会馆黄昏：东马华人历史组织在景观灯下庄严肃穆。前景广场 space 阔，老会员向年轻一代讲述先辈故事形成模糊光影。整体色调统一 in 琥珀色，background 是西巴迪岛灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>砂拉越州诗巫传统福州社区黄昏：东马华人垦场历史在景观灯下温暖呈现。前景街道 provide 充足 central space，老居民向游客分享移民故事形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是拉让江灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉兰丹州话望生传统马来村落黄昏：东海岸内陆马来文化在景观灯下温暖呈现。前景空地 space 阔，远处村民集体准备晚餐形成模糊光影。整体色调统一 in 琥珀色，background 是吉兰丹内陆山脉轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>彭亨州彭亨河黄昏：西马最大河流在景观灯下温柔流淌，河岸步道整齐。前景河岸 provide 充足 central space，垂钓者身影形成模糊光影。整体色调和谐统一 in 蓝色调，background 是蒂迪旺沙山脉轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>登嘉楼州瓜拉尼鲁斯传统马来织布黄昏：东海岸著名工艺在工作灯下生动展示。前景展示区 space 阔，老匠人向年轻女性传授传统图案形成模糊光影。整体色调统一 in 多彩 but 不跳跃，background 是登嘉楼河灯光，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉打州玻璃市传统稻田黄昏：马来西亚最小州属的核心产业在农用灯光下如棋盘。前景田埂 provide 充足 central space，远处农民身影形成模糊光影。整体色调和谐统一 in 绿色调，background 是泰国边境山脉轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>槟城大山脚传统印度庙黄昏：南亚建筑在节日灯饰下金碧辉煌 but 不刺眼。前景广场 space 阔，泰米尔家庭安静祈祷形成模糊光影。整体色调统一 in 多彩 but 不跳跃，background 是槟城中央山脉夜色，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>吉隆坡泗岩沫传统马来甘榜黄昏：都市边缘传统社区在现代灯光下文化坚守。前景空地 provide 充足 central space，村民集体准备开斋节晚餐形成模糊光影。整体色调和谐统一 in 琥珀色，background 是吉隆坡城市天际线，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>马六甲亚罗牙也传统棕榈园黄昏：马六甲州主要油棕产区在景观灯下展示历史。前景小径 space 阔，老种植园主与年轻管理者交流形成模糊光影。整体色调统一 in 绿色调，background 是塔曼山轮廓，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <t>柔佛州拉美士传统华人新村黄昏：南马华人社区在暖黄灯光下历史感浓厚。前景街道 provide 充足 central space，老居民讲述早期开拓故事形成模糊光影。整体色调和谐统一 in 暖黄色调，background 是柔佛内陆山脉，层次分明不杂乱，central 区域 space 阔宁静。</t>
+  </si>
+  <si>
+    <r>
+      <t>焦糖羊毛卷短发，女生鹅蛋脸线条柔和，野生眉毛流感自然，杏眼含笑带甜意，小巧翘鼻弧度温婉，花瓣唇轻抿露浅梨涡，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>休闲随性穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止卡通化、Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>亚麻波浪卷披肩发，女生心形脸下巴俏立，落尾眉温柔舒展，小鹿眼水润带怯意，圆润鼻头肉感十足，蜜桃唇唇角微扬，白皙匀净肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔韩系穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古大波浪卷发，女生方圆脸大气柔和，雾感平眉减龄显瘦，丹凤眼细长带媚态，窄鼻翼挺直鼻梁，豆沙唇紧抿显清冷，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>俏皮泡面卷短发，女生娃娃脸褪去幼态，粗平眉英气利落，圆眼明亮带灵动，蒜头鼻圆润憨厚，樱桃唇微张露皓齿，白皙细腻肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜酷少女穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒锁骨卷发，女生长脸轮廓修长，野生眉斜飞入鬓，猫眼上挑带酷感，水滴鼻精致小巧，唇珠明显唇角微垂，白皙透亮肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港风复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>蓬松高颅顶卷发，女生菱形脸颧骨微突，浅棕细眉温润柔和，杏眼含笑带暖意，直鼻山根挺拔，厚唇轻扬漾浅笑，白皙匀净肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式羊毛卷短发，女生椭圆脸顺滑流畅，挑眉凌厉带锐气，小鹿眼水润带笑意，圆鼻头小巧玲珑，花瓣唇抿出娇憨，白皙透红肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式慵懒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式蛋卷卷发，女生偏方脸下颌棱角柔和，落尾眉温柔减龄，丹凤眼细长带清冷，窄鼻翼高鼻梁，蜜桃唇唇角微扬，白皙细腻肤色，高挑微胖身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔知性穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古小波浪卷发，女生心形脸下巴尖俏，雾感平眉自然随性，圆眼明亮带俏皮，蒜头鼻圆润可爱，樱桃唇微张带甜感，白皙透亮肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒羊毛卷长发，女生方圆脸大气温婉，野生眉毛流感强，猫眼上挑带酷感，水滴鼻精致立体，厚唇紧抿显干练，白皙匀净肤色，匀称倒三角身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头潮酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落黑长直露额发，女生国字脸下颌方正，浓黑剑眉英气逼人，杏眼锐利带冷感，直鼻高挺不突兀，豆沙唇紧抿显气场，白皙透红肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中性飒爽穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式中分长直发，女生长脸轮廓柔和，浅棕细眉温润，小鹿眼水润带忧郁，圆鼻头肉感十足，花瓣唇轻抿带慵懒，白皙细腻肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔淑女穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>清爽齐肩直短发，女生椭圆脸线条顺滑，野生眉自然生长，丹凤眼细长带笑意，窄鼻翼挺直鼻梁，蜜桃唇唇角微扬，白皙透亮肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系清新穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>简约黑直短发，女生菱形脸颧骨立体，雾感平眉减龄，圆眼明亮带灵动，蒜头鼻圆润憨厚，樱桃唇微张露齿，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学院风减龄穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔碎发长直发，女生心形脸下巴俏立，落尾眉温柔舒展，猫眼上挑带媚态，水滴鼻精致小巧，厚唇轻扬漾浅笑，白皙透红肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻熟风优雅穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落短发铲青，女生偏方脸下颌棱角分明，挑眉凌厉带酷感，杏眼锐利带冷感，直鼻山根高挺，豆沙唇紧抿显干练，白皙细腻肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头酷飒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式空气刘海直发，女生娃娃脸褪去幼态，粗平眉柔和减龄，圆眼明亮带甜意，蒜头鼻圆润可爱，樱桃唇微张带娇憨，白皙透亮肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜妹软萌穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古中分长直发，女生方圆脸大气温婉，野生眉毛流感强，丹凤眼细长带复古感，窄鼻翼挺直鼻梁，厚唇轻扬带笑意，白皙匀净肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民国风温婉穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>清爽高马尾直发，女生椭圆脸线条顺滑，挑眉凌厉带锐气，杏眼明亮带活力，直鼻高挺不突兀，蜜桃唇唇角微扬，白皙透红肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动活力穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔低马尾直发，女生心形脸下巴俏立，落尾眉温柔舒展，小鹿眼水润带暖意，水滴鼻精致小巧，花瓣唇轻抿带甜感，白皙细腻肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤温柔穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒锁骨直发，女生长脸轮廓修长，雾感平眉自然随性，猫眼上挑带酷感，圆鼻头肉感十足，厚唇紧抿显清冷，白皙透亮肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系慵懒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落齐耳直短发，女生菱形脸颧骨立体，浓黑剑眉英气逼人，丹凤眼细长带锐利，窄鼻翼高鼻梁，豆沙唇紧抿显气场，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中性干练穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式羊毛卷短发，女生鹅蛋脸线条柔和，浅棕细眉温润，小鹿眼水润带俏皮，蒜头鼻圆润憨厚，樱桃唇微张露齿，白皙透红肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜酷混搭穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古波浪卷长发，女生偏方脸下颌棱角柔和，野生眉斜飞入鬓，杏眼含笑带复古感，直鼻山根挺拔，花瓣唇轻抿带媚态，白皙细腻肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港风明艳穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>蓬松泡面卷短发，女生心形脸下巴尖俏，挑眉凌厉带酷感，圆眼明亮带灵动，水滴鼻精致小巧，厚唇轻扬漾浅笑，白皙透亮肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式甜酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒中分卷发，女生方圆脸大气柔和，雾感平眉减龄显瘦，猫眼上挑带冷感，窄鼻翼挺直鼻梁，豆沙唇紧抿显干练，白皙匀净肤色，匀称倒三角身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落高马尾卷发，女生椭圆脸线条顺滑，浓黑剑眉英气逼人，杏眼明亮带活力，直鼻高挺不突兀，蜜桃唇唇角微扬，白皙透红肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动休闲穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔低马尾卷发，女生国字脸下颌方正，落尾眉温柔舒展，小鹿眼水润带暖意，圆鼻头肉感十足，花瓣唇轻抿带甜感，白皙细腻肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温婉居家穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>清爽齐刘海卷发，女生娃娃脸褪去幼态，粗平眉柔和减龄，圆眼明亮带娇憨，蒜头鼻圆润可爱，樱桃唇微张露皓齿，白皙透亮肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系软妹穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古侧分卷发，女生长脸轮廓修长，野生眉斜飞入鬓，丹凤眼细长带媚态，水滴鼻精致小巧，厚唇紧抿显清冷，白皙匀净肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复古港风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式纹理卷发，女生菱形脸颧骨立体，浅棕细眉温润，杏眼含笑带甜意，窄鼻翼高鼻梁，蜜桃唇唇角微扬，白皙透红肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系轻熟穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式锁骨卷发，女生鹅蛋脸线条柔和，挑眉凌厉带锐气，猫眼上挑带酷感，直鼻山根挺拔，豆沙唇紧抿显气场，白皙细腻肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式浪漫穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式复古卷发，女生心形脸下巴俏立，雾感平眉自然随性，圆眼明亮带俏皮，蒜头鼻圆润憨厚，樱桃唇微张带甜感，白皙透亮肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通勤简约卷发，女生方圆脸大气温婉，野生眉毛流感强，小鹿眼水润带暖意，水滴鼻精致小巧，厚唇轻扬漾浅笑，白皙匀净肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职场通勤穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>街头潮酷卷发，女生椭圆脸线条顺滑，浓黑剑眉英气逼人，杏眼锐利带冷感，窄鼻翼挺直鼻梁，花瓣唇紧抿显干练，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头潮流穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔淑女卷发，女生偏方脸下颌棱角柔和，落尾眉温柔舒展，丹凤眼细长带复古感，直鼻高挺不突兀，蜜桃唇唇角微扬，白皙细腻肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔淑女穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>甜妹软萌卷发，女生娃娃脸褪去幼态，粗平眉柔和减龄，圆眼明亮带娇憨，蒜头鼻圆润可爱，樱桃唇微张露齿，白皙透亮肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜妹可爱穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中性飒爽直发，女生国字脸下颌方正，野生眉斜飞入鬓，猫眼上挑带酷感，水滴鼻精致立体，厚唇紧抿显气场，白皙匀净肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中性风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩系慵懒直发，女生长脸轮廓修长，浅棕细眉温润，小鹿眼水润带忧郁，圆鼻头肉感十足，花瓣唇轻抿带慵懒，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系慵懒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系清新直发，女生菱形脸颧骨立体，雾感平眉减龄，杏眼明亮带活力，窄鼻翼高鼻梁，豆沙唇唇角微扬，白皙细腻肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系清新穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学院风直发，女生鹅蛋脸线条柔和，挑眉凌厉带锐气，圆眼明亮带灵动，直鼻山根挺拔，蜜桃唇微张带甜感，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学院风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>轻熟风直发，女生心形脸下巴俏立，落尾眉温柔舒展，丹凤眼细长带清冷，水滴鼻精致小巧，厚唇轻扬漾浅笑，白皙匀净肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻熟风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>街头酷飒直发，女生方圆脸大气温婉，浓黑剑眉英气逼人，猫眼上挑带酷感，窄鼻翼挺直鼻梁，花瓣唇紧抿显干练，白皙透红肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头酷飒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>运动活力直发，女生椭圆脸线条顺滑，野生眉自然生长，杏眼明亮带活力，圆鼻头肉感十足，樱桃唇微张露皓齿，白皙细腻肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温婉居家直发，女生偏方脸下颌棱角柔和，浅棕细眉温润，小鹿眼水润带暖意，直鼻高挺不突兀，蜜桃唇唇角微扬，白皙透亮肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>居家舒适穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>民国风直发，女生娃娃脸褪去幼态，雾感平眉自然随性，丹凤眼细长带复古感，蒜头鼻圆润憨厚，豆沙唇紧抿显温婉，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民国风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>港风复古直发，女生长脸轮廓修长，挑眉凌厉带锐气，猫眼上挑带酷感，水滴鼻精致小巧，厚唇紧抿显清冷，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港风复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式简约直发，女生菱形脸颧骨立体，落尾眉温柔舒展，杏眼含笑带甜意，窄鼻翼高鼻梁，花瓣唇轻抿带甜感，白皙细腻肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式甜酷直发，女生鹅蛋脸线条柔和，野生眉斜飞入鬓，圆眼明亮带俏皮，直鼻山根挺拔，樱桃唇微张带酷感，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式甜酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>职场通勤直发，女生心形脸下巴尖俏，雾感平眉减龄显瘦，小鹿眼水润带暖意，蒜头鼻圆润憨厚，厚唇轻扬漾浅笑，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职场通勤穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>甜酷少女卷发，女生方圆脸大气柔和，浓黑剑眉英气逼人，丹凤眼细长带媚态，水滴鼻精致立体，豆沙唇紧抿显气场，白皙透红肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜酷少女穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔知性卷发，女生椭圆脸线条顺滑，浅棕细眉温润，杏眼含笑带暖意，窄鼻翼挺直鼻梁，蜜桃唇唇角微扬，白皙细腻肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔知性穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系软妹卷发，女生偏方脸下颌棱角柔和，粗平眉柔和减龄，圆眼明亮带娇憨，直鼻高挺不突兀，樱桃唇微张露齿，白皙透亮肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系软妹穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中性风卷发，女生国字脸下颌方正，野生眉斜飞入鬓，猫眼上挑带酷感，蒜头鼻圆润憨厚，厚唇紧抿显干练，白皙匀净肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中性风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩系轻熟卷发，女生长脸轮廓修长，雾感平眉自然随性，小鹿眼水润带忧郁，水滴鼻精致小巧，花瓣唇轻抿带慵懒，白皙透红肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系轻熟穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式浪漫卷发，女生菱形脸颧骨立体，挑眉凌厉带锐气，杏眼明亮带活力，窄鼻翼高鼻梁，豆沙唇唇角微扬，白皙细腻肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式浪漫穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式复古卷发，女生鹅蛋脸线条柔和，落尾眉温柔舒展，圆眼明亮带俏皮，直鼻山根挺拔，蜜桃唇微张带甜感，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通勤简约卷发，女生心形脸下巴俏立，野生眉毛流感强，丹凤眼细长带复古感，蒜头鼻圆润憨厚，厚唇轻扬漾浅笑，白皙匀净肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>街头潮流卷发，女生方圆脸大气温婉，浓黑剑眉英气逼人，猫眼上挑带酷感，水滴鼻精致立体，花瓣唇紧抿显气场，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头潮流穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔淑女卷发，女生椭圆脸线条顺滑，浅棕细眉温润，小鹿眼水润带暖意，窄鼻翼挺直鼻梁，樱桃唇微张露皓齿，白皙细腻肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔淑女穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>甜妹可爱卷发，女生偏方脸下颌棱角柔和，雾感平眉减龄，杏眼含笑带甜意，直鼻高挺不突兀，蜜桃唇唇角微扬，白皙透亮肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜妹可爱穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中性飒爽卷发，女生国字脸下颌方正，挑眉凌厉带锐气，丹凤眼细长带清冷，蒜头鼻圆润憨厚，厚唇紧抿显干练，白皙匀净肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中性飒爽穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩系慵懒卷发，女生长脸轮廓修长，野生眉自然生长，圆眼明亮带灵动，水滴鼻精致小巧，豆沙唇轻抿带慵懒，白皙透红肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系慵懒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系清新卷发，女生菱形脸颧骨立体，落尾眉温柔舒展，小鹿眼水润带俏皮，窄鼻翼高鼻梁，花瓣唇微张带甜感，白皙细腻肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系清新穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学院风卷发，女生鹅蛋脸线条柔和，浓黑剑眉英气逼人，杏眼明亮带活力，直鼻山根挺拔，樱桃唇微张露齿，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学院风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>轻熟风卷发，女生心形脸下巴尖俏，雾感平眉自然随性，猫眼上挑带酷感，蒜头鼻圆润憨厚，厚唇轻扬漾浅笑，白皙匀净肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻熟风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>街头酷飒卷发，女生方圆脸大气温婉，浅棕细眉温润，丹凤眼细长带媚态，水滴鼻精致立体，蜜桃唇唇角微扬，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头酷飒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>运动活力卷发，女生椭圆脸线条顺滑，野生眉斜飞入鬓，圆眼明亮带俏皮，窄鼻翼挺直鼻梁，豆沙唇紧抿显干练，白皙细腻肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动活力穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温婉居家卷发，女生偏方脸下颌棱角柔和，挑眉凌厉带锐气，小鹿眼水润带暖意，直鼻高挺不突兀，花瓣唇轻抿带甜感，白皙透亮肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温婉居家穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>民国风卷发，女生娃娃脸褪去幼态，落尾眉温柔舒展，丹凤眼细长带复古感，蒜头鼻圆润憨厚，樱桃唇微张露皓齿，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民国风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>港风复古卷发，女生长脸轮廓修长，雾感平眉减龄显瘦，猫眼上挑带酷感，水滴鼻精致小巧，厚唇紧抿显清冷，白皙透红肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港风复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式简约卷发，女生菱形脸颧骨立体，野生眉自然生长，杏眼含笑带甜意，窄鼻翼高鼻梁，蜜桃唇唇角微扬，白皙细腻肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式甜酷卷发，女生鹅蛋脸线条柔和，浓黑剑眉英气逼人，圆眼明亮带灵动，直鼻山根挺拔，豆沙唇微张带酷感，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式甜酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>职场通勤卷发，女生心形脸下巴尖俏，浅棕细眉温润，小鹿眼水润带暖意，蒜头鼻圆润憨厚，厚唇轻扬漾浅笑，白皙匀净肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职场通勤穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>甜酷少女直发，女生方圆脸大气柔和，挑眉凌厉带锐气，丹凤眼细长带媚态，水滴鼻精致立体，花瓣唇紧抿显气场，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜酷少女穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔知性直发，女生椭圆脸线条顺滑，雾感平眉自然随性，杏眼含笑带暖意，窄鼻翼挺直鼻梁，樱桃唇微张露皓齿，白皙细腻肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔知性穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系软妹直发，女生偏方脸下颌棱角柔和，野生眉斜飞入鬓，圆眼明亮带娇憨，直鼻高挺不突兀，蜜桃唇唇角微扬，白皙透亮肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系软妹穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中性风直发，女生国字脸下颌方正，落尾眉温柔舒展，猫眼上挑带酷感，蒜头鼻圆润憨厚，厚唇紧抿显干练，白皙匀净肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中性风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩系轻熟直发，女生长脸轮廓修长，浓黑剑眉英气逼人，小鹿眼水润带忧郁，水滴鼻精致小巧，豆沙唇轻抿带慵懒，白皙透红肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系轻熟穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式浪漫直发，女生菱形脸颧骨立体，浅棕细眉温润，杏眼明亮带活力，窄鼻翼高鼻梁，花瓣唇微张带甜感，白皙细腻肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式浪漫穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式复古直发，女生鹅蛋脸线条柔和，雾感平眉减龄显瘦，圆眼明亮带俏皮，直鼻山根挺拔，樱桃唇微张带甜感，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通勤简约直发，女生心形脸下巴尖俏，野生眉毛流感强，丹凤眼细长带复古感，蒜头鼻圆润憨厚，厚唇轻扬漾浅笑，白皙匀净肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>街头潮流直发，女生方圆脸大气温婉，挑眉凌厉带锐气，猫眼上挑带酷感，水滴鼻精致立体，蜜桃唇唇角微扬，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头潮流穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔淑女直发，女生椭圆脸线条顺滑，落尾眉温柔舒展，小鹿眼水润带暖意，窄鼻翼挺直鼻梁，豆沙唇紧抿显干练，白皙细腻肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔淑女穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>甜妹可爱直发，女生偏方脸下颌棱角柔和，野生眉自然生长，杏眼含笑带甜意，直鼻高挺不突兀，花瓣唇轻抿带甜感，白皙透亮肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜妹可爱穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中性飒爽直发，女生国字脸下颌方正，浅棕细眉温润，丹凤眼细长带清冷，蒜头鼻圆润憨厚，厚唇紧抿显气场，白皙匀净肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中性飒爽穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩系慵懒直发，女生长脸轮廓修长，浓黑剑眉英气逼人，圆眼明亮带灵动，水滴鼻精致小巧，樱桃唇微张露皓齿，白皙透红肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系慵懒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系清新直发，女生菱形脸颧骨立体，雾感平眉减龄，小鹿眼水润带俏皮，窄鼻翼高鼻梁，蜜桃唇唇角微扬，白皙细腻肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系清新穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学院风直发，女生鹅蛋脸线条柔和，落尾眉温柔舒展，杏眼明亮带活力，直鼻山根挺拔，豆沙唇微张带酷感，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学院风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>轻熟风直发，女生心形脸下巴尖俏，野生眉斜飞入鬓，猫眼上挑带酷感，蒜头鼻圆润憨厚，厚唇轻扬漾浅笑，白皙匀净肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻熟风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>街头酷飒直发，女生方圆脸大气温婉，浅棕细眉温润，丹凤眼细长带媚态，水滴鼻精致立体，花瓣唇紧抿显气场，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头酷飒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>运动活力直发，女生椭圆脸线条顺滑，雾感平眉自然随性，圆眼明亮带俏皮，窄鼻翼挺直鼻梁，樱桃唇微张带甜感，白皙细腻肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动活力穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温婉居家直发，女生偏方脸下颌棱角柔和，野生眉自然生长，小鹿眼水润带暖意，直鼻高挺不突兀，蜜桃唇唇角微扬，白皙透亮肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温婉居家穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>民国风直发，女生娃娃脸褪去幼态，浓黑剑眉英气逼人，丹凤眼细长带复古感，蒜头鼻圆润憨厚，豆沙唇紧抿显温婉，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民国风穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>港风复古直发，女生长脸轮廓修长，落尾眉温柔舒展，猫眼上挑带酷感，水滴鼻精致小巧，厚唇紧抿显清冷，白皙透红肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港风复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式简约直发，女生菱形脸颧骨立体，浅棕细眉温润，杏眼含笑带甜意，窄鼻翼高鼻梁，花瓣唇微张带甜感，白皙细腻肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式甜酷直发，女生鹅蛋脸线条柔和，雾感平眉减龄显瘦，圆眼明亮带灵动，直鼻山根挺拔，樱桃唇微张带酷感，白皙透亮肤色，纤秾合度身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式甜酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>职场通勤直发，女生心形脸下巴尖俏，野生眉毛流感强，小鹿眼水润带暖意，蒜头鼻圆润憨厚，厚唇轻扬漾浅笑，白皙匀净肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职场通勤穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>甜酷少女直发，女生方圆脸大气柔和，挑眉凌厉带锐气，丹凤眼细长带媚态，水滴鼻精致立体，蜜桃唇唇角微扬，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜酷少女穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>温柔知性直发，女生椭圆脸线条顺滑，野生眉自然生长，杏眼含笑带暖意，窄鼻翼挺直鼻梁，豆沙唇紧抿显干练，白皙细腻肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔知性穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>毛躁碎盖短发，男生偏方脸下颌棱角利落，浓墨粗眉英气逼人，直鼻山根挺拔，薄唇微抿带几分酷感，白皙透亮肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头潮酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止卡通化、Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>低层次侧分短发，男生椭圆脸线条顺滑，浅棕落尾眉温柔舒展，圆鼻头肉感十足，厚唇唇角轻扬漾出浅笑，白皙匀净肤色，匀称倒三角身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>寸头渐变短发，男生菱形脸颧骨立体，剑眉斜飞入鬓，窄鼻翼高鼻梁锐利，唇线分明紧抿显沉稳，自然白皙肤色，精瘦窄腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硬汉工装穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式中分短发，男生长脸轮廓修长，雾感平眉柔和减龄，水滴鼻小巧精致，唇珠明显轻抿带慵懒，白皙透红肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系慵懒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>朋克短发铲青，男生国字脸下颌方正，挑眉上扬带桀骜感，鹰钩鼻线条冷冽，薄唇微掀露一点齿尖，白皙细腻肤色，微胖壮硕身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暗黑机能穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古三七分短发，男生方圆脸大气柔和，野生眉毛流感强，蒜头鼻圆润憨厚，厚唇含笑带暖感，白皙透亮肤色，匀称直身型，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反摄影，拒绝 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系蓬松短发，男生心形脸下巴小巧，浅棕雾眉自然随性，驼峰鼻自带辨识度，唇瓣薄厚适中唇角微垂，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系清新穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人模特，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落短发露额，男生长方脸轮廓分明，浓黑剑眉英挺，直鼻高挺不突兀，唇线清晰紧抿显干练，白皙透红肤色，高挑微胖身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商务休闲穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒羊毛卷短发，男生鹅蛋脸线条流畅，浅棕细眉温润，圆鼻小巧玲珑，厚唇轻扬带笑意，白皙细腻肤色，微胖梨形身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式慵懒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高马尾短发束起，男生菱形脸颧骨微突，挑眉凌厉带锐气，窄鼻挺直利落，薄唇微抿气场十足，白皙透亮肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动活力穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式慵懒短发，男生椭圆脸柔和，野生眉自然生长，水滴鼻精致小巧，唇珠圆润轻抿带俏皮，白皙匀净肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻熟雅痞穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式寸头短发，男生国字脸硬朗，浓眉粗黑有型，鹰钩鼻冷冽锋利，唇线分明紧抿显霸气，自然白皙肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式硬汉穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式纹理短发，男生心形脸下巴尖俏，雾感眉柔和，蒜头鼻圆润可爱，厚唇含笑带甜感，白皙透红肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系甜酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古油头短发，男生长方脸轮廓修长，剑眉英挺，直鼻山根高，薄唇轻扬带复古韵味，白皙细腻肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复古绅士穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人模特，拒绝幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系短发碎刘海，男生方圆脸柔和，浅棕细眉温润，圆鼻头肉感，唇瓣薄厚适中唇角微扬，白皙透亮肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系工装穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，避免卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>朋克鸡冠短发，男生偏方脸棱角分明，挑眉桀骜，窄鼻锐利，薄唇微掀带叛逆感，白皙匀净肤色，精瘦窄腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头朋克穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式中分长刘海，男生椭圆脸顺滑，野生眉毛流感强，水滴鼻小巧，厚唇轻抿带忧郁感，白皙透红肤色，匀称倒三角身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系温柔穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，拒绝幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落短发铲青，男生菱形脸立体，剑眉斜飞，鹰钩鼻冷冽，唇线分明紧抿显冷酷，自然白皙肤色，高挑微胖身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暗黑酷飒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒卷发短发，男生国字脸方正，浅棕雾眉柔和，圆鼻头憨厚，厚唇含笑带暖感，白皙细腻肤色，微胖壮硕身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式休闲穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，禁止卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高颅顶短发，男生心形脸小巧，挑眉灵动，窄鼻挺直，薄唇微扬带俏皮，白皙透亮肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜酷少年穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人模特，拒绝 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式短发碎发，男生长方脸修长，浓黑剑眉英挺，直鼻高挺，唇线清晰紧抿显干练，白皙匀净肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式渐变短发，男生方圆脸大气，野生眉自然，蒜头鼻圆润，厚唇轻扬带笑意，白皙透红肤色，匀称直身型，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式街头穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式纹理烫短发，男生椭圆脸柔和，浅棕细眉温润，水滴鼻精致，唇珠明显轻抿带慵懒，白皙细腻肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系轻熟穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古三七分油头，男生菱形脸立体，剑眉英挺，鹰钩鼻冷冽，薄唇微抿带复古酷感，自然白皙肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复古雅痞穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系短发露额，男生国字脸硬朗，浓眉粗黑，直鼻山根高，唇线分明紧抿显霸气，白皙透亮肤色，精瘦窄腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系机能穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>朋克短发染棕，男生心形脸尖俏，挑眉桀骜，窄鼻锐利，厚唇微掀带叛逆感，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街头潮男穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人模特，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式中分短发，男生长方脸修长，雾感眉柔和，圆鼻头肉感，唇瓣薄厚适中唇角微扬，白皙透红肤色，高挑微胖身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系休闲穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落短发碎盖，男生方圆脸大气，野生眉毛流感强，水滴鼻小巧，厚唇含笑带甜感，白皙细腻肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤舒适穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒羊毛卷短发，男生椭圆脸顺滑，浅棕细眉温润，蒜头鼻圆润，唇珠圆润轻抿带俏皮，白皙透亮肤色，匀称倒三角身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式浪漫穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高马尾束发，男生菱形脸立体，剑眉斜飞，鹰钩鼻冷冽，薄唇微抿气场十足，自然白皙肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动潮酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式慵懒短发，男生国字脸方正，雾感平眉柔和，圆鼻头憨厚，厚唇轻扬带暖感，白皙匀净肤色，微胖壮硕身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式休闲穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式寸头渐变，男生心形脸小巧，浓眉粗黑有型，直鼻高挺，唇线分明紧抿显干练，白皙透红肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式工装穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人模特，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式纹理短发，男生长方脸修长，浅棕落尾眉温柔，水滴鼻精致，厚唇轻抿带忧郁感，白皙细腻肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系雅痞穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古三七分短发，男生方圆脸大气，野生眉自然，蒜头鼻圆润，唇瓣薄厚适中唇角微扬，白皙透亮肤色，匀称直身型，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复古休闲穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系蓬松短发，男生椭圆脸柔和，雾感眉柔和，圆鼻头肉感，唇珠明显轻抿带慵懒，白皙匀净肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系清新穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>朋克短发铲青，男生菱形脸立体，挑眉桀骜，窄鼻锐利，薄唇微掀带叛逆感，自然白皙肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暗黑街头穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式中分长刘海，男生国字脸硬朗，浅棕细眉温润，水滴鼻小巧，厚唇含笑带甜感，白皙透红肤色，精瘦窄腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系甜暖穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落短发露额，男生长方脸修长，剑眉英挺，直鼻山根高，唇线分明紧抿显霸气，白皙细腻肤色，高挑微胖身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商务正装穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人模特，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒卷发短发，男生心形脸尖俏，野生眉毛流感强，蒜头鼻圆润，唇瓣薄厚适中唇角微扬，白皙透亮肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式慵懒穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高颅顶短发，男生方圆脸大气，雾感平眉柔和，圆鼻头憨厚，厚唇轻扬带暖感，白皙匀净肤色，微胖苹果型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通勤简约穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法式短发碎发，男生椭圆脸顺滑，浅棕落尾眉温柔，水滴鼻精致，唇珠圆润轻抿带俏皮，白皙透红肤色，匀称倒三角身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式轻熟穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美式渐变短发，男生菱形脸立体，浓眉粗黑有型，鹰钩鼻冷冽，薄唇微抿气场十足，自然白皙肤色，纤瘦细腰身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美式机能穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式纹理烫短发，男生国字脸方正，雾感眉柔和，圆鼻头肉感，厚唇轻抿带忧郁感，白皙细腻肤色，微胖壮硕身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系暗黑穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，禁止 Q 版比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>复古油头短发，男生长方脸修长，剑眉斜飞，直鼻高挺，唇线分明紧抿显干练，白皙透亮肤色，高挑纤瘦身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复古绅士穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人模特，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日系短发碎刘海，男生心形脸小巧，浅棕细眉温润，蒜头鼻圆润，唇瓣薄厚适中唇角微扬，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日系街头穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，避免幼龄化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>朋克鸡冠短发，男生方圆脸大气，挑眉桀骜，窄鼻锐利，薄唇微掀带叛逆感，白皙透红肤色，匀称直身型，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朋克潮酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实人像，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韩式中分短发，男生椭圆脸柔和，野生眉毛流感强，水滴鼻小巧，厚唇含笑带甜感，白皙细腻肤色，匀称沙漏型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩系清新穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人质感，禁止 Q 版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利落短发铲青，男生国字脸硬朗，剑眉英挺，鹰钩鼻冷冽，唇线分明紧抿显霸气，自然白皙肤色，健硕宽肩身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硬汉潮酷穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写实摄影，拒绝卡通化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慵懒羊毛卷短发，男生长方脸修长，雾感平眉柔和，圆鼻头憨厚，厚唇轻扬带暖感，白皙透亮肤色，高挑微胖身形，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法式复古穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单反实拍，避免幼态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高马尾短发束起，男生心形脸尖俏，浓眉粗黑有型，直鼻高挺，薄唇微扬带俏皮，白皙匀净肤色，娇小型身材，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动少年穿搭风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，真人模特，无卡通元素</t>
+    </r>
+  </si>
+  <si>
+    <t>自定义参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1191,26 +5553,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="2"/>
@@ -1226,12 +5568,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF82D99F"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="2"/>
@@ -1240,8 +5576,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFE7E6E6"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF82D99F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFB8BFC6"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1252,8 +5634,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1284,6 +5674,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1299,14 +5695,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1315,40 +5705,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1626,1413 +6028,2337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48976D80-DEAB-6048-8F77-94E0E607D7BE}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="53.83203125" customWidth="1"/>
-    <col min="4" max="5" width="48.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" ht="26">
+      <c r="A1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="I1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="L1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="M1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="N1" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" ht="196">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="N2" s="8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" ht="170">
+      <c r="A3" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="G3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="M3" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="N3" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" ht="168">
+      <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="J4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="M4" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="N4" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" ht="168">
+      <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="J5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="N5" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:14" ht="154">
+      <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="J6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="M6" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="N6" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:14" ht="154">
+      <c r="D7" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="J7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="M7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="N7" s="8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:14" ht="154">
+      <c r="D8" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="J8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="L8" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="M8" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="N8" s="8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:14" ht="168">
+      <c r="D9" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="J9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="M9" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="N9" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:14" ht="154">
+      <c r="D10" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="K10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="L10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="M10" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="N10" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:14" ht="154">
+      <c r="D11" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="G11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="K11" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="L11" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="M11" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="N11" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:14" ht="170">
+      <c r="D12" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="M12" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="N12" s="8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:14" ht="168">
+      <c r="D13" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="G13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="M13" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="N13" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:14" ht="153">
+      <c r="D14" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="G14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="M14" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="N14" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:14" ht="154">
+      <c r="D15" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="G15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="M15" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="N15" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:14" ht="170">
+      <c r="D16" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="G16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="M16" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="N16" s="8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="24">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="4:14" ht="154">
+      <c r="D17" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="G17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="M17" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="N17" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="24">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="4:14" ht="170">
+      <c r="D18" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="G18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="M18" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="N18" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="24">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="4:14" ht="154">
+      <c r="D19" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="G19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="M19" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="N19" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="24">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="4:14" ht="154">
+      <c r="D20" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="G20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="M20" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="N20" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="24">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="4:14" ht="154">
+      <c r="D21" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="G21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="M21" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="N21" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="24">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="4:14" ht="154">
+      <c r="D22" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="G22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="M22" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="N22" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="24">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="4:14" ht="154">
+      <c r="D23" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="M23" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="N23" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="24">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="4:14" ht="154">
+      <c r="D24" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="M24" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="N24" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="24">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="4:14" ht="154">
+      <c r="D25" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="M25" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="N25" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="24">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="4:14" ht="168">
+      <c r="D26" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="M26" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="N26" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="24">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="4:14" ht="154">
+      <c r="D27" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="M27" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="N27" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="24">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="4:14" ht="154">
+      <c r="D28" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="M28" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="N28" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="24">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="4:14" ht="154">
+      <c r="D29" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="M29" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="N29" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="24">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="4:14" ht="170">
+      <c r="D30" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="M30" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="N30" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="24">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="4:14" ht="154">
+      <c r="D31" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="M31" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="N31" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="24">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="4:14" ht="170">
+      <c r="D32" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="M32" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="N32" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="24">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="4:14" ht="154">
+      <c r="D33" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E33" t="s">
+      <c r="I33" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="M33" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="N33" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="24">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="4:14" ht="153">
+      <c r="D34" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E34" t="s">
+      <c r="I34" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="M34" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="N34" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="24">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="4:14" ht="154">
+      <c r="D35" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
+      <c r="I35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="M35" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="N35" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="24">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="4:14" ht="170">
+      <c r="D36" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="M36" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="N36" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="24">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="4:14" ht="154">
+      <c r="D37" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E37" t="s">
+      <c r="I37" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="M37" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="N37" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="24">
-      <c r="B38" s="2" t="s">
+    <row r="38" spans="4:14" ht="170">
+      <c r="D38" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E38" t="s">
+      <c r="I38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="M38" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="N38" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="24">
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="4:14" ht="154">
+      <c r="D39" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E39" t="s">
+      <c r="I39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="M39" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="N39" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="24">
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="4:14" ht="170">
+      <c r="D40" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E40" t="s">
+      <c r="I40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="M40" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="N40" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="24">
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="4:14" ht="154">
+      <c r="D41" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E41" t="s">
+      <c r="I41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="M41" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="N41" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="24">
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="4:14" ht="168">
+      <c r="D42" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E42" t="s">
+      <c r="I42" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="M42" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="N42" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="24">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="4:14" ht="170">
+      <c r="D43" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E43" t="s">
+      <c r="I43" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="M43" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="N43" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="24">
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="4:14" ht="170">
+      <c r="D44" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E44" t="s">
+      <c r="I44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="M44" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="N44" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="24">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="4:14" ht="168">
+      <c r="D45" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E45" t="s">
+      <c r="I45" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="M45" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="N45" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="24">
-      <c r="E46" t="s">
+    <row r="46" spans="4:14" ht="154">
+      <c r="D46" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="M46" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="N46" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="24">
-      <c r="E47" t="s">
+    <row r="47" spans="4:14" ht="154">
+      <c r="D47" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="M47" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="N47" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="24">
-      <c r="E48" t="s">
+    <row r="48" spans="4:14" ht="154">
+      <c r="D48" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="M48" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="J48" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" ht="24">
-      <c r="E49" t="s">
+      <c r="N48" s="18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" ht="154">
+      <c r="D49" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="M49" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="J49" s="16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10" ht="24">
-      <c r="E50" t="s">
+      <c r="N49" s="18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" ht="154">
+      <c r="D50" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="M50" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="J50" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10" ht="24">
-      <c r="E51" t="s">
+      <c r="N50" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" ht="154">
+      <c r="D51" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="M51" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="J51" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10" ht="20">
-      <c r="I52" s="15" t="s">
+      <c r="N51" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" ht="154">
+      <c r="E52" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="M52" s="13" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="53" spans="5:10" ht="20">
-      <c r="I53" s="15" t="s">
+      <c r="N52" s="18" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" ht="154">
+      <c r="E53" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="M53" s="13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="54" spans="5:10" ht="20">
-      <c r="I54" s="15" t="s">
+      <c r="N53" s="18" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" ht="154">
+      <c r="E54" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="M54" s="13" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="55" spans="5:10" ht="20">
-      <c r="I55" s="15" t="s">
+      <c r="N54" s="18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" ht="154">
+      <c r="E55" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="M55" s="13" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="56" spans="5:10" ht="20">
-      <c r="I56" s="15" t="s">
+      <c r="N55" s="18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" ht="154">
+      <c r="E56" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="M56" s="13" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="57" spans="5:10" ht="20">
-      <c r="I57" s="15" t="s">
+      <c r="N56" s="18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" ht="154">
+      <c r="E57" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="M57" s="13" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="58" spans="5:10" ht="20">
-      <c r="I58" s="15" t="s">
+      <c r="N57" s="18" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" ht="154">
+      <c r="E58" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="M58" s="13" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="59" spans="5:10" ht="20">
-      <c r="I59" s="15" t="s">
+      <c r="N58" s="18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" ht="154">
+      <c r="E59" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="M59" s="13" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="60" spans="5:10" ht="20">
-      <c r="I60" s="15" t="s">
+      <c r="N59" s="18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" ht="154">
+      <c r="E60" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="M60" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="61" spans="5:10" ht="20">
-      <c r="I61" s="15" t="s">
+      <c r="N60" s="18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" ht="154">
+      <c r="E61" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="M61" s="13" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="62" spans="5:10" ht="20">
-      <c r="I62" s="15" t="s">
+      <c r="N61" s="18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" ht="168">
+      <c r="E62" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="M62" s="13" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="63" spans="5:10" ht="20">
-      <c r="I63" s="15" t="s">
+      <c r="N62" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" ht="154">
+      <c r="E63" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="M63" s="13" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="64" spans="5:10" ht="20">
-      <c r="I64" s="15" t="s">
+      <c r="N63" s="18" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" ht="168">
+      <c r="E64" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" s="13" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" ht="20">
-      <c r="I65" s="15" t="s">
+      <c r="N64" s="18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" spans="5:14" ht="154">
+      <c r="E65" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="M65" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" ht="20">
-      <c r="I66" s="15" t="s">
+      <c r="N65" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="5:14" ht="154">
+      <c r="E66" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="M66" s="13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" ht="20">
-      <c r="I67" s="15" t="s">
+      <c r="N66" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="5:14" ht="154">
+      <c r="E67" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="M67" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" ht="20">
-      <c r="I68" s="15" t="s">
+      <c r="N67" s="18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68" spans="5:14" ht="154">
+      <c r="E68" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="M68" s="13" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" ht="20">
-      <c r="I69" s="15" t="s">
+      <c r="N68" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69" spans="5:14" ht="154">
+      <c r="E69" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="M69" s="13" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" ht="20">
-      <c r="I70" s="15" t="s">
+      <c r="N69" s="18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="70" spans="5:14" ht="154">
+      <c r="E70" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="M70" s="13" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" ht="20">
-      <c r="I71" s="15" t="s">
+      <c r="N70" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71" spans="5:14" ht="168">
+      <c r="E71" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="M71" s="13" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" ht="20">
-      <c r="I72" s="15" t="s">
+      <c r="N71" s="18" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72" spans="5:14" ht="168">
+      <c r="E72" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="M72" s="13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" ht="20">
-      <c r="I73" s="15" t="s">
+      <c r="N72" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73" spans="5:14" ht="154">
+      <c r="E73" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="M73" s="13" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" ht="20">
-      <c r="I74" s="15" t="s">
+      <c r="N73" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="74" spans="5:14" ht="154">
+      <c r="E74" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="M74" s="13" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="75" spans="9:9" ht="20">
-      <c r="I75" s="15" t="s">
+      <c r="N74" s="18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="5:14" ht="168">
+      <c r="E75" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="M75" s="13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="76" spans="9:9" ht="20">
-      <c r="I76" s="15" t="s">
+      <c r="N75" s="18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="76" spans="5:14" ht="168">
+      <c r="E76" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="M76" s="13" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="77" spans="9:9" ht="20">
-      <c r="I77" s="15" t="s">
+      <c r="N76" s="18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77" spans="5:14" ht="168">
+      <c r="E77" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="M77" s="13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="78" spans="9:9" ht="20">
-      <c r="I78" s="15" t="s">
+      <c r="N77" s="18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" spans="5:14" ht="168">
+      <c r="E78" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="M78" s="13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="79" spans="9:9" ht="20">
-      <c r="I79" s="15" t="s">
+      <c r="N78" s="18" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="79" spans="5:14" ht="168">
+      <c r="E79" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="M79" s="13" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="80" spans="9:9" ht="20">
-      <c r="I80" s="15" t="s">
+      <c r="N79" s="18" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80" spans="5:14" ht="182">
+      <c r="E80" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="M80" s="13" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="81" spans="9:9" ht="20">
-      <c r="I81" s="15" t="s">
+      <c r="N80" s="18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="81" spans="5:14" ht="168">
+      <c r="E81" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="M81" s="13" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="82" spans="9:9" ht="20">
-      <c r="I82" s="15" t="s">
+      <c r="N81" s="18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="82" spans="5:14" ht="168">
+      <c r="E82" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="M82" s="13" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="83" spans="9:9" ht="20">
-      <c r="I83" s="15" t="s">
+      <c r="N82" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="83" spans="5:14" ht="168">
+      <c r="E83" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="M83" s="13" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="84" spans="9:9" ht="20">
-      <c r="I84" s="15" t="s">
+      <c r="N83" s="18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="84" spans="5:14" ht="168">
+      <c r="E84" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="M84" s="13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="85" spans="9:9" ht="20">
-      <c r="I85" s="15" t="s">
+      <c r="N84" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85" spans="5:14" ht="168">
+      <c r="E85" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="M85" s="13" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="86" spans="9:9" ht="20">
-      <c r="I86" s="15" t="s">
+      <c r="N85" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="86" spans="5:14" ht="168">
+      <c r="E86" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="M86" s="13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="87" spans="9:9" ht="20">
-      <c r="I87" s="15" t="s">
+      <c r="N86" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="87" spans="5:14" ht="168">
+      <c r="E87" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="M87" s="13" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="88" spans="9:9" ht="20">
-      <c r="I88" s="15" t="s">
+      <c r="N87" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="88" spans="5:14" ht="168">
+      <c r="E88" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="M88" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="89" spans="9:9" ht="20">
-      <c r="I89" s="15" t="s">
+      <c r="N88" s="18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89" spans="5:14" ht="168">
+      <c r="E89" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="M89" s="13" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="90" spans="9:9" ht="20">
-      <c r="I90" s="15" t="s">
+      <c r="N89" s="18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="90" spans="5:14" ht="168">
+      <c r="E90" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="M90" s="13" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="91" spans="9:9" ht="20">
-      <c r="I91" s="15" t="s">
+      <c r="N90" s="18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="91" spans="5:14" ht="168">
+      <c r="E91" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="M91" s="13" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="92" spans="9:9" ht="20">
-      <c r="I92" s="15" t="s">
+      <c r="N91" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="92" spans="5:14" ht="168">
+      <c r="E92" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="M92" s="13" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="93" spans="9:9" ht="20">
-      <c r="I93" s="15" t="s">
+      <c r="N92" s="18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93" spans="5:14" ht="168">
+      <c r="E93" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="M93" s="13" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="94" spans="9:9" ht="20">
-      <c r="I94" s="15" t="s">
+      <c r="N93" s="18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="94" spans="5:14" ht="182">
+      <c r="E94" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="M94" s="13" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="95" spans="9:9" ht="20">
-      <c r="I95" s="15" t="s">
+      <c r="N94" s="18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95" spans="5:14" ht="168">
+      <c r="E95" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="M95" s="13" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="96" spans="9:9" ht="20">
-      <c r="I96" s="15" t="s">
+      <c r="N95" s="18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="96" spans="5:14" ht="168">
+      <c r="E96" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="M96" s="13" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="97" spans="9:9" ht="20">
-      <c r="I97" s="15" t="s">
+      <c r="N96" s="18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="97" spans="5:14" ht="196">
+      <c r="E97" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="M97" s="13" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="98" spans="9:9" ht="20">
-      <c r="I98" s="15" t="s">
+      <c r="N97" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="98" spans="5:14" ht="168">
+      <c r="E98" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="M98" s="13" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="99" spans="9:9" ht="20">
-      <c r="I99" s="15" t="s">
+      <c r="N98" s="18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="99" spans="5:14" ht="182">
+      <c r="E99" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="M99" s="13" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="100" spans="9:9" ht="20">
-      <c r="I100" s="15" t="s">
+      <c r="N99" s="18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="100" spans="5:14" ht="168">
+      <c r="E100" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="M100" s="13" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="101" spans="9:9" ht="20">
-      <c r="I101" s="15" t="s">
+      <c r="N100" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="101" spans="5:14" ht="182">
+      <c r="E101" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="M101" s="13" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="102" spans="9:9" ht="20">
-      <c r="I102" s="15" t="s">
+      <c r="N101" s="18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="102" spans="5:14" ht="168">
+      <c r="E102" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="M102" s="13" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="103" spans="9:9" ht="20">
-      <c r="I103" s="15" t="s">
+      <c r="N102" s="18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="103" spans="5:14" ht="168">
+      <c r="E103" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="M103" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="104" spans="9:9" ht="20">
-      <c r="I104" s="15" t="s">
+      <c r="N103" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="104" spans="5:14" ht="168">
+      <c r="E104" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="M104" s="13" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="105" spans="9:9" ht="20">
-      <c r="I105" s="15" t="s">
+      <c r="N104" s="18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="105" spans="5:14" ht="182">
+      <c r="E105" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="M105" s="13" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="106" spans="9:9" ht="20">
-      <c r="I106" s="15" t="s">
+      <c r="N105" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="106" spans="5:14" ht="168">
+      <c r="E106" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="M106" s="13" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="107" spans="9:9" ht="20">
-      <c r="I107" s="15" t="s">
+      <c r="N106" s="18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="107" spans="5:14" ht="168">
+      <c r="E107" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="M107" s="13" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="108" spans="9:9" ht="20">
-      <c r="I108" s="15" t="s">
+      <c r="N107" s="18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="108" spans="5:14" ht="168">
+      <c r="E108" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="M108" s="13" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="109" spans="9:9" ht="20">
-      <c r="I109" s="15" t="s">
+      <c r="N108" s="18" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="109" spans="5:14" ht="168">
+      <c r="E109" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="M109" s="13" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="110" spans="9:9" ht="20">
-      <c r="I110" s="15" t="s">
+      <c r="N109" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="110" spans="5:14" ht="182">
+      <c r="E110" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="M110" s="13" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="111" spans="9:9" ht="20">
-      <c r="I111" s="15" t="s">
+      <c r="N110" s="18" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="111" spans="5:14" ht="168">
+      <c r="E111" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="M111" s="13" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="112" spans="9:9" ht="20">
-      <c r="I112" s="15" t="s">
+      <c r="N111" s="18" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="112" spans="5:14" ht="168">
+      <c r="E112" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="M112" s="13" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="113" spans="9:9" ht="20">
-      <c r="I113" s="15" t="s">
+      <c r="N112" s="18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="113" spans="5:14" ht="168">
+      <c r="E113" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="M113" s="13" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="114" spans="9:9" ht="20">
-      <c r="I114" s="15" t="s">
+      <c r="N113" s="18" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="114" spans="5:14" ht="168">
+      <c r="E114" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="M114" s="13" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="115" spans="9:9" ht="20">
-      <c r="I115" s="15" t="s">
+      <c r="N114" s="18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="115" spans="5:14" ht="168">
+      <c r="E115" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="M115" s="13" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="116" spans="9:9" ht="20">
-      <c r="I116" s="15" t="s">
+      <c r="N115" s="18" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="116" spans="5:14" ht="168">
+      <c r="E116" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="M116" s="13" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="117" spans="9:9" ht="20">
-      <c r="I117" s="15" t="s">
+      <c r="N116" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="117" spans="5:14" ht="182">
+      <c r="E117" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="M117" s="13" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="118" spans="9:9" ht="20">
-      <c r="I118" s="15" t="s">
+      <c r="N117" s="18" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="118" spans="5:14" ht="168">
+      <c r="E118" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="M118" s="13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="119" spans="9:9" ht="20">
-      <c r="I119" s="15" t="s">
+      <c r="N118" s="18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="119" spans="5:14" ht="182">
+      <c r="E119" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="M119" s="13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="120" spans="9:9" ht="20">
-      <c r="I120" s="15" t="s">
+      <c r="N119" s="18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="120" spans="5:14" ht="182">
+      <c r="E120" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="M120" s="13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="121" spans="9:9" ht="20">
-      <c r="I121" s="15" t="s">
+      <c r="N120" s="18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="121" spans="5:14" ht="168">
+      <c r="E121" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="M121" s="13" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="122" spans="9:9" ht="20">
-      <c r="I122" s="15" t="s">
+      <c r="N121" s="18" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="122" spans="5:14" ht="182">
+      <c r="E122" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="M122" s="13" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="123" spans="9:9" ht="20">
-      <c r="I123" s="15" t="s">
+      <c r="N122" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="123" spans="5:14" ht="168">
+      <c r="E123" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="M123" s="13" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="124" spans="9:9" ht="20">
-      <c r="I124" s="15" t="s">
+      <c r="N123" s="18" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="124" spans="5:14" ht="168">
+      <c r="E124" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="M124" s="13" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="125" spans="9:9" ht="20">
-      <c r="I125" s="15" t="s">
+      <c r="N124" s="18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="125" spans="5:14" ht="168">
+      <c r="E125" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="M125" s="13" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="126" spans="9:9" ht="20">
-      <c r="I126" s="15" t="s">
+      <c r="N125" s="18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="126" spans="5:14" ht="168">
+      <c r="E126" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="M126" s="13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="127" spans="9:9" ht="20">
-      <c r="I127" s="15" t="s">
+      <c r="N126" s="18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="127" spans="5:14" ht="182">
+      <c r="E127" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="M127" s="13" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="128" spans="9:9" ht="20">
-      <c r="I128" s="15" t="s">
+      <c r="N127" s="18" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="5:14" ht="168">
+      <c r="E128" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="M128" s="13" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="129" spans="9:9" ht="20">
-      <c r="I129" s="15" t="s">
+      <c r="N128" s="18" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="129" spans="5:14" ht="168">
+      <c r="E129" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="M129" s="13" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="130" spans="9:9" ht="20">
-      <c r="I130" s="15" t="s">
+      <c r="N129" s="18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="130" spans="5:14" ht="182">
+      <c r="E130" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="M130" s="13" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="131" spans="9:9" ht="20">
-      <c r="I131" s="15" t="s">
+      <c r="N130" s="18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="131" spans="5:14" ht="168">
+      <c r="E131" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="M131" s="13" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="132" spans="9:9" ht="20">
-      <c r="I132" s="15" t="s">
+      <c r="N131" s="18" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="132" spans="5:14" ht="182">
+      <c r="E132" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="M132" s="13" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="133" spans="9:9" ht="20">
-      <c r="I133" s="15" t="s">
+      <c r="N132" s="18" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" spans="5:14" ht="168">
+      <c r="E133" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="M133" s="13" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="134" spans="9:9" ht="20">
-      <c r="I134" s="15" t="s">
+      <c r="N133" s="18" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="134" spans="5:14" ht="196">
+      <c r="E134" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="M134" s="13" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="135" spans="9:9" ht="20">
-      <c r="I135" s="15" t="s">
+      <c r="N134" s="18" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="135" spans="5:14" ht="154">
+      <c r="E135" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="M135" s="13" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="136" spans="9:9" ht="20">
-      <c r="I136" s="15" t="s">
+      <c r="N135" s="18" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="136" spans="5:14" ht="168">
+      <c r="E136" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="M136" s="13" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="137" spans="9:9" ht="20">
-      <c r="I137" s="15" t="s">
+      <c r="N136" s="18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="137" spans="5:14" ht="182">
+      <c r="E137" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="M137" s="13" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="138" spans="9:9" ht="20">
-      <c r="I138" s="15" t="s">
+      <c r="N137" s="18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="138" spans="5:14" ht="154">
+      <c r="E138" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="M138" s="13" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="139" spans="9:9" ht="20">
-      <c r="I139" s="15" t="s">
+      <c r="N138" s="18" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="139" spans="5:14" ht="168">
+      <c r="E139" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="M139" s="13" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="140" spans="9:9" ht="20">
-      <c r="I140" s="15" t="s">
+      <c r="N139" s="18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="140" spans="5:14" ht="154">
+      <c r="E140" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="M140" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="141" spans="9:9" ht="20">
-      <c r="I141" s="15" t="s">
+      <c r="N140" s="18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="141" spans="5:14" ht="182">
+      <c r="E141" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="M141" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="142" spans="9:9" ht="20">
-      <c r="I142" s="15" t="s">
+      <c r="N141" s="18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="142" spans="5:14" ht="168">
+      <c r="E142" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="M142" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="143" spans="9:9" ht="20">
-      <c r="I143" s="15" t="s">
+      <c r="N142" s="18" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="143" spans="5:14" ht="154">
+      <c r="E143" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="M143" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="144" spans="9:9" ht="20">
-      <c r="I144" s="15" t="s">
+      <c r="N143" s="18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="144" spans="5:14" ht="182">
+      <c r="E144" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="M144" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="145" spans="9:9" ht="20">
-      <c r="I145" s="15" t="s">
+      <c r="N144" s="18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="145" spans="5:14" ht="154">
+      <c r="E145" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="M145" s="13" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="146" spans="9:9" ht="20">
-      <c r="I146" s="15" t="s">
+      <c r="N145" s="18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="146" spans="5:14" ht="182">
+      <c r="E146" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="M146" s="13" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="147" spans="9:9" ht="20">
-      <c r="I147" s="15" t="s">
+      <c r="N146" s="18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="147" spans="5:14" ht="182">
+      <c r="E147" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="M147" s="13" t="s">
         <v>316</v>
+      </c>
+      <c r="N147" s="18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="148" spans="5:14">
+      <c r="E148" s="17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="149" spans="5:14">
+      <c r="E149" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150" spans="5:14">
+      <c r="E150" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="151" spans="5:14">
+      <c r="E151" s="17" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3057,12 +8383,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3072,7 +8398,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3082,7 +8408,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
